--- a/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF8B2B2-3E2E-4D7D-BB73-75485087D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{222C51FB-CE03-4C29-9BCC-F0B1D5164EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA7E0CD5-107A-419E-9202-9A7D41F7640C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACB0F67-E3B3-40B9-A0E5-DD8AA25C7881}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>72,72%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>27,28%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,97 @@
     <t>69,2%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>69,27%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>72,4%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D60A1-8596-4728-A440-9B3D8454102F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69268235-3579-47AE-A9B5-F7493C15918A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1145,7 +1139,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>603</v>
@@ -1154,13 +1148,13 @@
         <v>449725</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1034</v>
@@ -1169,13 +1163,13 @@
         <v>893847</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1184,13 @@
         <v>197667</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
@@ -1205,13 +1199,13 @@
         <v>233296</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -1220,13 +1214,13 @@
         <v>430963</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1288,13 @@
         <v>2230249</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>3192</v>
@@ -1309,13 +1303,13 @@
         <v>2380119</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>5322</v>
@@ -1324,13 +1318,13 @@
         <v>4610368</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1339,13 @@
         <v>868211</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>1614</v>
@@ -1360,13 +1354,13 @@
         <v>1056003</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2546</v>
@@ -1375,13 +1369,13 @@
         <v>1924214</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{222C51FB-CE03-4C29-9BCC-F0B1D5164EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B9A06C-9A9D-44D7-8ABD-6151A2864959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACB0F67-E3B3-40B9-A0E5-DD8AA25C7881}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A386FF7-1ECA-4F67-BDD0-717959DF8AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69268235-3579-47AE-A9B5-F7493C15918A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02DAC7-3067-4C6B-BCAA-FC5E0BD96602}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B9A06C-9A9D-44D7-8ABD-6151A2864959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA788A70-1F60-44F4-8009-5D051E83F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A386FF7-1ECA-4F67-BDD0-717959DF8AF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9728B820-F325-43F9-9D4C-B3FCAB30BED4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>72,72%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>27,28%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,97 +194,103 @@
     <t>69,2%</t>
   </si>
   <si>
-    <t>65,17%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>34,83%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>74,08%</t>
   </si>
   <si>
     <t>69,27%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>72,4%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>25,92%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>27,6%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02DAC7-3067-4C6B-BCAA-FC5E0BD96602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B921AE4-FE4F-41D9-82E6-9AC2DBAE73B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1139,7 +1145,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>603</v>
@@ -1148,13 +1154,13 @@
         <v>449725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1034</v>
@@ -1163,13 +1169,13 @@
         <v>893847</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1190,13 @@
         <v>197667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
@@ -1199,13 +1205,13 @@
         <v>233296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -1214,13 +1220,13 @@
         <v>430963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1294,13 @@
         <v>2230249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>3192</v>
@@ -1303,13 +1309,13 @@
         <v>2380119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>5322</v>
@@ -1318,13 +1324,13 @@
         <v>4610368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1345,13 @@
         <v>868211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>1614</v>
@@ -1354,13 +1360,13 @@
         <v>1056003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2546</v>
@@ -1369,13 +1375,13 @@
         <v>1924214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA788A70-1F60-44F4-8009-5D051E83F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0BC827-5E8F-4C18-B6FB-07CCD9795F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9728B820-F325-43F9-9D4C-B3FCAB30BED4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{09C460B4-2304-4D12-97F2-17FFDCCB0431}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>30,74%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B921AE4-FE4F-41D9-82E6-9AC2DBAE73B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28AE1DE-1576-4A70-9889-33185A94E875}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>395</v>
       </c>
       <c r="D4" s="7">
-        <v>320690</v>
+        <v>305072</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>830</v>
       </c>
       <c r="I4" s="7">
-        <v>487501</v>
+        <v>440198</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>1225</v>
       </c>
       <c r="N4" s="7">
-        <v>808191</v>
+        <v>745269</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>120280</v>
+        <v>116540</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>293</v>
       </c>
       <c r="I5" s="7">
-        <v>180946</v>
+        <v>163755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>447</v>
       </c>
       <c r="N5" s="7">
-        <v>301227</v>
+        <v>280296</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>549</v>
       </c>
       <c r="D6" s="7">
-        <v>440970</v>
+        <v>421612</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1123</v>
       </c>
       <c r="I6" s="7">
-        <v>668447</v>
+        <v>603953</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>1672</v>
       </c>
       <c r="N6" s="7">
-        <v>1109418</v>
+        <v>1025565</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>1304</v>
       </c>
       <c r="D7" s="7">
-        <v>1465438</v>
+        <v>1610993</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>1759</v>
       </c>
       <c r="I7" s="7">
-        <v>1442893</v>
+        <v>1411823</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>3063</v>
       </c>
       <c r="N7" s="7">
-        <v>2908330</v>
+        <v>3022816</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1038,7 @@
         <v>562</v>
       </c>
       <c r="D8" s="7">
-        <v>550263</v>
+        <v>540743</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1053,7 @@
         <v>964</v>
       </c>
       <c r="I8" s="7">
-        <v>641760</v>
+        <v>651697</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>1526</v>
       </c>
       <c r="N8" s="7">
-        <v>1192024</v>
+        <v>1192441</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1089,7 @@
         <v>1866</v>
       </c>
       <c r="D9" s="7">
-        <v>2015701</v>
+        <v>2151736</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2723</v>
       </c>
       <c r="I9" s="7">
-        <v>2084653</v>
+        <v>2063520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4589</v>
       </c>
       <c r="N9" s="7">
-        <v>4100354</v>
+        <v>4215257</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1142,7 @@
         <v>431</v>
       </c>
       <c r="D10" s="7">
-        <v>444121</v>
+        <v>422420</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1157,7 @@
         <v>603</v>
       </c>
       <c r="I10" s="7">
-        <v>449725</v>
+        <v>416405</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1172,7 @@
         <v>1034</v>
       </c>
       <c r="N10" s="7">
-        <v>893847</v>
+        <v>838825</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1187,7 +1193,7 @@
         <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>197667</v>
+        <v>194698</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1202,7 +1208,7 @@
         <v>357</v>
       </c>
       <c r="I11" s="7">
-        <v>233296</v>
+        <v>215561</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1217,7 +1223,7 @@
         <v>573</v>
       </c>
       <c r="N11" s="7">
-        <v>430963</v>
+        <v>410259</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1238,7 +1244,7 @@
         <v>647</v>
       </c>
       <c r="D12" s="7">
-        <v>641788</v>
+        <v>617118</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>960</v>
       </c>
       <c r="I12" s="7">
-        <v>683021</v>
+        <v>631966</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1607</v>
       </c>
       <c r="N12" s="7">
-        <v>1324810</v>
+        <v>1249084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>2130</v>
       </c>
       <c r="D13" s="7">
-        <v>2230249</v>
+        <v>2338485</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>3192</v>
       </c>
       <c r="I13" s="7">
-        <v>2380119</v>
+        <v>2268426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5322</v>
       </c>
       <c r="N13" s="7">
-        <v>4610368</v>
+        <v>4606910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>868211</v>
+        <v>851981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1614</v>
       </c>
       <c r="I14" s="7">
-        <v>1056003</v>
+        <v>1031013</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2546</v>
       </c>
       <c r="N14" s="7">
-        <v>1924214</v>
+        <v>1882995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3062</v>
       </c>
       <c r="D15" s="7">
-        <v>3098460</v>
+        <v>3190466</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>4806</v>
       </c>
       <c r="I15" s="7">
-        <v>3436122</v>
+        <v>3299439</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>7868</v>
       </c>
       <c r="N15" s="7">
-        <v>6534582</v>
+        <v>6489905</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
